--- a/Code/Results/Cases/Case_1_199/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_199/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.10521947388332</v>
+        <v>12.92773025893681</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.911490776087513</v>
+        <v>5.249664978213886</v>
       </c>
       <c r="E2">
-        <v>11.31848197429159</v>
+        <v>17.27897892724593</v>
       </c>
       <c r="F2">
-        <v>19.03086297939001</v>
+        <v>25.60861178551005</v>
       </c>
       <c r="G2">
-        <v>2.090182866105286</v>
+        <v>3.641342139503822</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.52407870107455</v>
+        <v>27.59913202289396</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.38234606054116</v>
+        <v>10.37788392761205</v>
       </c>
       <c r="L2">
-        <v>6.217196700323246</v>
+        <v>9.077777649411001</v>
       </c>
       <c r="M2">
-        <v>9.434752179060652</v>
+        <v>14.04963910846694</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.38957802321011</v>
+        <v>22.95529315108247</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.51795109192332</v>
+        <v>12.81108664042205</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.769962064209357</v>
+        <v>5.199758023703251</v>
       </c>
       <c r="E3">
-        <v>11.43234501950127</v>
+        <v>17.32460629892783</v>
       </c>
       <c r="F3">
-        <v>18.68413882662809</v>
+        <v>25.63610191954925</v>
       </c>
       <c r="G3">
-        <v>2.09497234536938</v>
+        <v>3.643167727173325</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.84775920713478</v>
+        <v>27.72514051326128</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.69549039544924</v>
+        <v>10.05590156360472</v>
       </c>
       <c r="L3">
-        <v>6.030192035177279</v>
+        <v>9.062470992886556</v>
       </c>
       <c r="M3">
-        <v>9.145160550940579</v>
+        <v>14.0226904257472</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.34544212974276</v>
+        <v>23.02378835839344</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.14346129171971</v>
+        <v>12.74094727003814</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.680451296069514</v>
+        <v>5.168426775786083</v>
       </c>
       <c r="E4">
-        <v>11.50516198501736</v>
+        <v>17.35421174792223</v>
       </c>
       <c r="F4">
-        <v>18.48606086747881</v>
+        <v>25.65991317009484</v>
       </c>
       <c r="G4">
-        <v>2.098007482163755</v>
+        <v>3.644348767417939</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.05554775388891</v>
+        <v>27.80698930560511</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.25514113723303</v>
+        <v>9.851071867117833</v>
       </c>
       <c r="L4">
-        <v>5.915006214669982</v>
+        <v>9.054393952642432</v>
       </c>
       <c r="M4">
-        <v>8.965910628359076</v>
+        <v>14.00793798179357</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.33204571171665</v>
+        <v>23.07097218498434</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.987520694674721</v>
+        <v>12.71276411819803</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.643348876004227</v>
+        <v>5.155491559604695</v>
       </c>
       <c r="E5">
-        <v>11.53556985455283</v>
+        <v>17.36667715919824</v>
       </c>
       <c r="F5">
-        <v>18.4090792579181</v>
+        <v>25.67135694637285</v>
       </c>
       <c r="G5">
-        <v>2.099268555185926</v>
+        <v>3.644845215809219</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.14246627049151</v>
+        <v>27.84147126864996</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.07113285907568</v>
+        <v>9.765886742457399</v>
       </c>
       <c r="L5">
-        <v>5.86804058371004</v>
+        <v>9.051437271060465</v>
       </c>
       <c r="M5">
-        <v>8.892606149417745</v>
+        <v>14.00238172905649</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.32991513395153</v>
+        <v>23.09148654904701</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.961430969557668</v>
+        <v>12.70810921358423</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.637151185095092</v>
+        <v>5.153333725810217</v>
       </c>
       <c r="E6">
-        <v>11.54066352975704</v>
+        <v>17.36877128057619</v>
       </c>
       <c r="F6">
-        <v>18.39652228917847</v>
+        <v>25.67336220390867</v>
       </c>
       <c r="G6">
-        <v>2.099479433037158</v>
+        <v>3.644928567984008</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.15703364435265</v>
+        <v>27.84726514380203</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.04030681264719</v>
+        <v>9.751640634771665</v>
       </c>
       <c r="L6">
-        <v>5.86024235260921</v>
+        <v>9.050966605705851</v>
       </c>
       <c r="M6">
-        <v>8.880421523098239</v>
+        <v>14.00148674891728</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.32975889048401</v>
+        <v>23.09497056505219</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.14137147837828</v>
+        <v>12.74056553066901</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.679953412217273</v>
+        <v>5.168252997644317</v>
       </c>
       <c r="E7">
-        <v>11.50556909741922</v>
+        <v>17.35437823588661</v>
       </c>
       <c r="F7">
-        <v>18.48500753079934</v>
+        <v>25.66006046182025</v>
       </c>
       <c r="G7">
-        <v>2.098024390682848</v>
+        <v>3.644355401230645</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.05671092456736</v>
+        <v>27.80744977236476</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.25267783561692</v>
+        <v>9.849929867857696</v>
       </c>
       <c r="L7">
-        <v>5.91437283815142</v>
+        <v>9.05435271912002</v>
       </c>
       <c r="M7">
-        <v>8.964922924435234</v>
+        <v>14.0078611984585</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.33200365837093</v>
+        <v>23.07124364339455</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.905703943058</v>
+        <v>12.88722069255724</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.863251224931318</v>
+        <v>5.232603202743116</v>
       </c>
       <c r="E8">
-        <v>11.35714148956172</v>
+        <v>17.29438190152763</v>
       </c>
       <c r="F8">
-        <v>18.90824964958954</v>
+        <v>25.61665026141523</v>
       </c>
       <c r="G8">
-        <v>2.091814997315184</v>
+        <v>3.641959151974862</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.63378523988769</v>
+        <v>27.64165109165466</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.14944649973922</v>
+        <v>10.26838890641175</v>
       </c>
       <c r="L8">
-        <v>6.152830919194261</v>
+        <v>9.07222725127995</v>
       </c>
       <c r="M8">
-        <v>9.335259547925745</v>
+        <v>14.03997750522961</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.37144661621715</v>
+        <v>22.97784446372696</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.28852262371285</v>
+        <v>13.18534281472202</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.200774469093485</v>
+        <v>5.353094895045095</v>
       </c>
       <c r="E9">
-        <v>11.08894300058575</v>
+        <v>17.18929487216775</v>
       </c>
       <c r="F9">
-        <v>19.85461830509737</v>
+        <v>25.58660933386428</v>
       </c>
       <c r="G9">
-        <v>2.080363528559572</v>
+        <v>3.637735023729429</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.8779101708084</v>
+        <v>27.35198570439375</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.75619244787302</v>
+        <v>11.02935544807918</v>
       </c>
       <c r="L9">
-        <v>6.614914727160305</v>
+        <v>9.117644204676703</v>
       </c>
       <c r="M9">
-        <v>10.04590652119468</v>
+        <v>14.11699250719654</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.56253497782877</v>
+        <v>22.83549170763315</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.22786591781399</v>
+        <v>13.40913846286841</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.433979035934121</v>
+        <v>5.437835941959845</v>
       </c>
       <c r="E10">
-        <v>10.90559372052586</v>
+        <v>17.11967692103718</v>
       </c>
       <c r="F10">
-        <v>20.61872205464674</v>
+        <v>25.59817907132225</v>
       </c>
       <c r="G10">
-        <v>2.072357343309687</v>
+        <v>3.634918089829193</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.37016232815841</v>
+        <v>27.16068514359212</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.84001965137647</v>
+        <v>11.54849971937999</v>
       </c>
       <c r="L10">
-        <v>6.947848293466401</v>
+        <v>9.157159822242235</v>
       </c>
       <c r="M10">
-        <v>10.55352670045751</v>
+        <v>14.18184741273387</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.77874877512906</v>
+        <v>22.75593261603637</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.63774290070109</v>
+        <v>13.51162688828297</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.536618085361688</v>
+        <v>5.475501716839373</v>
       </c>
       <c r="E11">
-        <v>10.82510796899943</v>
+        <v>17.08963887982392</v>
       </c>
       <c r="F11">
-        <v>20.98069056635504</v>
+        <v>25.61074008544792</v>
       </c>
       <c r="G11">
-        <v>2.068795384680846</v>
+        <v>3.633698177179127</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.15028476839757</v>
+        <v>27.0783082261471</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.31156299469422</v>
+        <v>11.77537232153349</v>
       </c>
       <c r="L11">
-        <v>7.097316604438938</v>
+        <v>9.176430789693056</v>
       </c>
       <c r="M11">
-        <v>10.78042384197701</v>
+        <v>14.21308171450521</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.89484315768498</v>
+        <v>22.72520267467895</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.79039910673461</v>
+        <v>13.55050478049687</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.574972088181706</v>
+        <v>5.489632529522091</v>
       </c>
       <c r="E12">
-        <v>10.79504662615354</v>
+        <v>17.07849772906849</v>
       </c>
       <c r="F12">
-        <v>21.119772549803</v>
+        <v>25.61654371119005</v>
       </c>
       <c r="G12">
-        <v>2.067457370062891</v>
+        <v>3.633245027162496</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.06869825996832</v>
+        <v>27.04778095269616</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.48700611555367</v>
+        <v>11.85990276150286</v>
       </c>
       <c r="L12">
-        <v>7.153590946154244</v>
+        <v>9.183910654093836</v>
       </c>
       <c r="M12">
-        <v>10.86570308218962</v>
+        <v>14.22515226777825</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.94145104698414</v>
+        <v>22.71435351358928</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.75763612732259</v>
+        <v>13.54212919958673</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.566734944649028</v>
+        <v>5.486595178625322</v>
       </c>
       <c r="E13">
-        <v>10.80150238110665</v>
+        <v>17.08088680156765</v>
       </c>
       <c r="F13">
-        <v>21.0897301079114</v>
+        <v>25.6152472779025</v>
       </c>
       <c r="G13">
-        <v>2.067745065693064</v>
+        <v>3.633342230223879</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.08619340587606</v>
+        <v>27.05432589590653</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.44936040748008</v>
+        <v>11.84175972062985</v>
       </c>
       <c r="L13">
-        <v>7.141486349404655</v>
+        <v>9.182291684273828</v>
       </c>
       <c r="M13">
-        <v>10.84736613603642</v>
+        <v>14.22254196062129</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.93129410026093</v>
+        <v>22.71665501333624</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.65035345670582</v>
+        <v>13.51482421152783</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.539783868932593</v>
+        <v>5.476666951023903</v>
       </c>
       <c r="E14">
-        <v>10.8226264666534</v>
+        <v>17.08871761461118</v>
       </c>
       <c r="F14">
-        <v>20.992092901452</v>
+        <v>25.611196586235</v>
       </c>
       <c r="G14">
-        <v>2.068685092668071</v>
+        <v>3.633660720044298</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.14353849636088</v>
+        <v>27.0757833659332</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.32605946260459</v>
+        <v>11.78235461673136</v>
       </c>
       <c r="L14">
-        <v>7.101953076184913</v>
+        <v>9.177042530570326</v>
       </c>
       <c r="M14">
-        <v>10.78745301211771</v>
+        <v>14.21406993639548</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.89862407592876</v>
+        <v>22.72429431123827</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.5843057584559</v>
+        <v>13.49810704177878</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.523208247008546</v>
+        <v>5.470568225761795</v>
       </c>
       <c r="E15">
-        <v>10.8356197785198</v>
+        <v>17.09354460609251</v>
       </c>
       <c r="F15">
-        <v>20.93254776573406</v>
+        <v>25.60885168823098</v>
       </c>
       <c r="G15">
-        <v>2.069262274264962</v>
+        <v>3.633856949589457</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.17888492527412</v>
+        <v>27.08901352702708</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.25012707990307</v>
+        <v>11.745786130086</v>
       </c>
       <c r="L15">
-        <v>7.077694230628636</v>
+        <v>9.173850903854998</v>
       </c>
       <c r="M15">
-        <v>10.75066917571164</v>
+        <v>14.20891200902128</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.87895997203138</v>
+        <v>22.72907623177229</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.20072420800968</v>
+        <v>13.40245173581673</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.427200419743772</v>
+        <v>5.435356156950812</v>
       </c>
       <c r="E16">
-        <v>10.91091215269123</v>
+        <v>17.12167272167419</v>
       </c>
       <c r="F16">
-        <v>20.59535111228777</v>
+        <v>25.59750485107471</v>
       </c>
       <c r="G16">
-        <v>2.072591678898482</v>
+        <v>3.634999048362386</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.38476177596195</v>
+        <v>27.16616207589095</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.80876788412503</v>
+        <v>11.53348212687294</v>
       </c>
       <c r="L16">
-        <v>6.93803664583814</v>
+        <v>9.155926153947762</v>
       </c>
       <c r="M16">
-        <v>10.53861189216912</v>
+        <v>14.17984049660761</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.77152690364334</v>
+        <v>22.75805098922921</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.9609048965096</v>
+        <v>13.3439234549217</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.367406661861362</v>
+        <v>5.413524575679783</v>
       </c>
       <c r="E17">
-        <v>10.95784734882981</v>
+        <v>17.13934556037226</v>
       </c>
       <c r="F17">
-        <v>20.39213434331957</v>
+        <v>25.59241172453203</v>
       </c>
       <c r="G17">
-        <v>2.074654193383695</v>
+        <v>3.635715416390205</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.51395669943403</v>
+        <v>27.21467953101205</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.53247832123163</v>
+        <v>11.40082724782485</v>
       </c>
       <c r="L17">
-        <v>6.851822185691326</v>
+        <v>9.145258919842055</v>
       </c>
       <c r="M17">
-        <v>10.4074436955741</v>
+        <v>14.16244521960202</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.71023261221692</v>
+        <v>22.77722661195808</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.82132799235527</v>
+        <v>13.31032560405291</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.332691326964457</v>
+        <v>5.400884794602943</v>
       </c>
       <c r="E18">
-        <v>10.98511832075289</v>
+        <v>17.14966413515188</v>
       </c>
       <c r="F18">
-        <v>20.2766056876299</v>
+        <v>25.5901694114014</v>
       </c>
       <c r="G18">
-        <v>2.075848080217018</v>
+        <v>3.636133245862584</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.58930543673016</v>
+        <v>27.2430229173867</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.37154158058767</v>
+        <v>11.32365573232005</v>
       </c>
       <c r="L18">
-        <v>6.802049162688443</v>
+        <v>9.139245555322224</v>
       </c>
       <c r="M18">
-        <v>10.3316239159294</v>
+        <v>14.1526032777866</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.67664202663238</v>
+        <v>22.78876990465174</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.77378982657618</v>
+        <v>13.29896222602519</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.320882315154305</v>
+        <v>5.396591121418784</v>
       </c>
       <c r="E19">
-        <v>10.99439914971896</v>
+        <v>17.15318424339181</v>
       </c>
       <c r="F19">
-        <v>20.23772428404832</v>
+        <v>25.58952827191793</v>
       </c>
       <c r="G19">
-        <v>2.076253632689153</v>
+        <v>3.636275712094967</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.61499346609929</v>
+        <v>27.2526946645037</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.31670492028803</v>
+        <v>11.29737850590182</v>
       </c>
       <c r="L19">
-        <v>6.785166471943145</v>
+        <v>9.137230626869654</v>
       </c>
       <c r="M19">
-        <v>10.30589025488753</v>
+        <v>14.14929920715889</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.66555168330192</v>
+        <v>22.79276647179746</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.98660411492175</v>
+        <v>13.35014727345923</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.373805429904396</v>
+        <v>5.415857197063113</v>
       </c>
       <c r="E20">
-        <v>10.95282257002071</v>
+        <v>17.13744836420001</v>
       </c>
       <c r="F20">
-        <v>20.41362714699306</v>
+        <v>25.59288279636999</v>
       </c>
       <c r="G20">
-        <v>2.074433855283284</v>
+        <v>3.635638558492842</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.50009558008743</v>
+        <v>27.20946950095487</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.56209936522016</v>
+        <v>11.41503917588984</v>
       </c>
       <c r="L20">
-        <v>6.861019294806253</v>
+        <v>9.146381850838038</v>
       </c>
       <c r="M20">
-        <v>10.42144610285756</v>
+        <v>14.1642801132377</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.7165845426275</v>
+        <v>22.77513212243979</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.68193464205427</v>
+        <v>13.52284275103665</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.547714108405784</v>
+        <v>5.479586747486985</v>
       </c>
       <c r="E21">
-        <v>10.81641052075494</v>
+        <v>17.08641118303741</v>
       </c>
       <c r="F21">
-        <v>21.02071712844679</v>
+        <v>25.61235798021089</v>
       </c>
       <c r="G21">
-        <v>2.068408696018916</v>
+        <v>3.633566933252708</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.12664865572188</v>
+        <v>27.06946269114516</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.36236079178188</v>
+        <v>11.79984116008418</v>
       </c>
       <c r="L21">
-        <v>7.113574102372086</v>
+        <v>9.178579416644293</v>
       </c>
       <c r="M21">
-        <v>10.80506883055967</v>
+        <v>14.21655183623812</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.90814753092577</v>
+        <v>22.72202907267925</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.1214662499925</v>
+        <v>13.6360901972028</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.658375832386545</v>
+        <v>5.520463585337881</v>
       </c>
       <c r="E22">
-        <v>10.72968591331274</v>
+        <v>17.05441659494072</v>
       </c>
       <c r="F22">
-        <v>21.42919146288977</v>
+        <v>25.63118727391075</v>
       </c>
       <c r="G22">
-        <v>2.064533629181413</v>
+        <v>3.632264305761405</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.89239709098692</v>
+        <v>26.98184790595259</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.86718603193412</v>
+        <v>12.04326285783606</v>
       </c>
       <c r="L22">
-        <v>7.276717800130095</v>
+        <v>9.200683434667788</v>
       </c>
       <c r="M22">
-        <v>11.05202414251275</v>
+        <v>14.25212661819239</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.04880462924341</v>
+        <v>22.69191475506557</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.8882563109587</v>
+        <v>13.57562303211328</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.599593046657072</v>
+        <v>5.498719414994572</v>
       </c>
       <c r="E23">
-        <v>10.7757512196101</v>
+        <v>17.07136849242262</v>
       </c>
       <c r="F23">
-        <v>21.21012744430434</v>
+        <v>25.62058052328105</v>
       </c>
       <c r="G23">
-        <v>2.066596327509567</v>
+        <v>3.632954862706919</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.01649339370199</v>
+        <v>27.02825418873961</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.59942250159606</v>
+        <v>11.91409608159931</v>
       </c>
       <c r="L23">
-        <v>7.18983219098543</v>
+        <v>9.188790345686758</v>
       </c>
       <c r="M23">
-        <v>10.9205826698337</v>
+        <v>14.23301257862678</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.97228894428218</v>
+        <v>22.70756653731024</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.97499079453681</v>
+        <v>13.34733332443011</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.3709136017587</v>
+        <v>5.414802894225993</v>
       </c>
       <c r="E24">
-        <v>10.95509337739626</v>
+        <v>17.13830559367595</v>
       </c>
       <c r="F24">
-        <v>20.40390618655808</v>
+        <v>25.59266768842028</v>
       </c>
       <c r="G24">
-        <v>2.074533444794909</v>
+        <v>3.635673287317952</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.50635885635</v>
+        <v>27.21182355355811</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.54871421182834</v>
+        <v>11.4086167831549</v>
       </c>
       <c r="L24">
-        <v>6.856861923951</v>
+        <v>9.145873801617752</v>
       </c>
       <c r="M24">
-        <v>10.41511688491742</v>
+        <v>14.16345006260736</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.71370770799561</v>
+        <v>22.77607742474155</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.92754845155092</v>
+        <v>13.10373506951664</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.111968441159326</v>
+        <v>5.321141235872985</v>
       </c>
       <c r="E25">
-        <v>11.15907545020821</v>
+        <v>17.21638582211473</v>
       </c>
       <c r="F25">
-        <v>19.58633087366205</v>
+        <v>25.58882898896262</v>
       </c>
       <c r="G25">
-        <v>2.083387311061571</v>
+        <v>3.638827229840573</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.07426759488246</v>
+        <v>27.42656198591432</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.33826801733849</v>
+        <v>10.83027380762132</v>
       </c>
       <c r="L25">
-        <v>6.490849792238314</v>
+        <v>9.104264883609419</v>
       </c>
       <c r="M25">
-        <v>9.855873420659034</v>
+        <v>14.09468358437976</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.49797345253069</v>
+        <v>22.86961714590941</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_199/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_199/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.92773025893681</v>
+        <v>11.1052194738833</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.249664978213886</v>
+        <v>4.911490776087528</v>
       </c>
       <c r="E2">
-        <v>17.27897892724593</v>
+        <v>11.31848197429172</v>
       </c>
       <c r="F2">
-        <v>25.60861178551005</v>
+        <v>19.03086297938971</v>
       </c>
       <c r="G2">
-        <v>3.641342139503822</v>
+        <v>2.090182866105418</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.59913202289396</v>
+        <v>17.5240787010743</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.37788392761205</v>
+        <v>14.38234606054123</v>
       </c>
       <c r="L2">
-        <v>9.077777649411001</v>
+        <v>6.217196700323212</v>
       </c>
       <c r="M2">
-        <v>14.04963910846694</v>
+        <v>9.434752179060608</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.95529315108247</v>
+        <v>15.38957802320985</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.81108664042205</v>
+        <v>10.51795109192335</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.199758023703251</v>
+        <v>4.769962064209242</v>
       </c>
       <c r="E3">
-        <v>17.32460629892783</v>
+        <v>11.43234501950121</v>
       </c>
       <c r="F3">
-        <v>25.63610191954925</v>
+        <v>18.68413882662815</v>
       </c>
       <c r="G3">
-        <v>3.643167727173325</v>
+        <v>2.094972345369515</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.72514051326128</v>
+        <v>17.8477592071349</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.05590156360472</v>
+        <v>13.69549039544924</v>
       </c>
       <c r="L3">
-        <v>9.062470992886556</v>
+        <v>6.030192035177254</v>
       </c>
       <c r="M3">
-        <v>14.0226904257472</v>
+        <v>9.145160550940563</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.02378835839344</v>
+        <v>15.34544212974278</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.74094727003814</v>
+        <v>10.14346129171978</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.168426775786083</v>
+        <v>4.680451296069572</v>
       </c>
       <c r="E4">
-        <v>17.35421174792223</v>
+        <v>11.50516198501749</v>
       </c>
       <c r="F4">
-        <v>25.65991317009484</v>
+        <v>18.48606086747857</v>
       </c>
       <c r="G4">
-        <v>3.644348767417939</v>
+        <v>2.09800748216349</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.80698930560511</v>
+        <v>18.05554775388876</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.851071867117833</v>
+        <v>13.255141137233</v>
       </c>
       <c r="L4">
-        <v>9.054393952642432</v>
+        <v>5.91500621466991</v>
       </c>
       <c r="M4">
-        <v>14.00793798179357</v>
+        <v>8.965910628359088</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.07097218498434</v>
+        <v>15.33204571171646</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.71276411819803</v>
+        <v>9.987520694674711</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.155491559604695</v>
+        <v>4.643348876004051</v>
       </c>
       <c r="E5">
-        <v>17.36667715919824</v>
+        <v>11.5355698545529</v>
       </c>
       <c r="F5">
-        <v>25.67135694637285</v>
+        <v>18.40907925791788</v>
       </c>
       <c r="G5">
-        <v>3.644845215809219</v>
+        <v>2.099268555186058</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.84147126864996</v>
+        <v>18.14246627049132</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.765886742457399</v>
+        <v>13.07113285907575</v>
       </c>
       <c r="L5">
-        <v>9.051437271060465</v>
+        <v>5.868040583710015</v>
       </c>
       <c r="M5">
-        <v>14.00238172905649</v>
+        <v>8.892606149417743</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.09148654904701</v>
+        <v>15.32991513395129</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.70810921358423</v>
+        <v>9.961430969557652</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.153333725810217</v>
+        <v>4.637151185094863</v>
       </c>
       <c r="E6">
-        <v>17.36877128057619</v>
+        <v>11.54066352975718</v>
       </c>
       <c r="F6">
-        <v>25.67336220390867</v>
+        <v>18.39652228917853</v>
       </c>
       <c r="G6">
-        <v>3.644928567984008</v>
+        <v>2.099479433037025</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.84726514380203</v>
+        <v>18.15703364435267</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.751640634771665</v>
+        <v>13.04030681264724</v>
       </c>
       <c r="L6">
-        <v>9.050966605705851</v>
+        <v>5.86024235260922</v>
       </c>
       <c r="M6">
-        <v>14.00148674891728</v>
+        <v>8.880421523098235</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.09497056505219</v>
+        <v>15.32975889048397</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.74056553066901</v>
+        <v>10.14137147837822</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.168252997644317</v>
+        <v>4.679953412217289</v>
       </c>
       <c r="E7">
-        <v>17.35437823588661</v>
+        <v>11.50556909741922</v>
       </c>
       <c r="F7">
-        <v>25.66006046182025</v>
+        <v>18.48500753079928</v>
       </c>
       <c r="G7">
-        <v>3.644355401230645</v>
+        <v>2.098024390682849</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.80744977236476</v>
+        <v>18.05671092456721</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.849929867857696</v>
+        <v>13.25267783561693</v>
       </c>
       <c r="L7">
-        <v>9.05435271912002</v>
+        <v>5.914372838151457</v>
       </c>
       <c r="M7">
-        <v>14.0078611984585</v>
+        <v>8.964922924435232</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.07124364339455</v>
+        <v>15.33200365837086</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.88722069255724</v>
+        <v>10.90570394305802</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.232603202743116</v>
+        <v>4.863251224931418</v>
       </c>
       <c r="E8">
-        <v>17.29438190152763</v>
+        <v>11.35714148956185</v>
       </c>
       <c r="F8">
-        <v>25.61665026141523</v>
+        <v>18.90824964958943</v>
       </c>
       <c r="G8">
-        <v>3.641959151974862</v>
+        <v>2.091814997314914</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.64165109165466</v>
+        <v>17.63378523988773</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.26838890641175</v>
+        <v>14.14944649973921</v>
       </c>
       <c r="L8">
-        <v>9.07222725127995</v>
+        <v>6.152830919194217</v>
       </c>
       <c r="M8">
-        <v>14.03997750522961</v>
+        <v>9.335259547925743</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.97784446372696</v>
+        <v>15.37144661621708</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.18534281472202</v>
+        <v>12.28852262371288</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.353094895045095</v>
+        <v>5.200774469093491</v>
       </c>
       <c r="E9">
-        <v>17.18929487216775</v>
+        <v>11.08894300058575</v>
       </c>
       <c r="F9">
-        <v>25.58660933386428</v>
+        <v>19.85461830509722</v>
       </c>
       <c r="G9">
-        <v>3.637735023729429</v>
+        <v>2.080363528559439</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.35198570439375</v>
+        <v>16.87791017080822</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.02935544807918</v>
+        <v>15.75619244787305</v>
       </c>
       <c r="L9">
-        <v>9.117644204676703</v>
+        <v>6.61491472716031</v>
       </c>
       <c r="M9">
-        <v>14.11699250719654</v>
+        <v>10.04590652119467</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.83549170763315</v>
+        <v>15.56253497782867</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.40913846286841</v>
+        <v>13.22786591781403</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.437835941959845</v>
+        <v>5.433979035934127</v>
       </c>
       <c r="E10">
-        <v>17.11967692103718</v>
+        <v>10.905593720526</v>
       </c>
       <c r="F10">
-        <v>25.59817907132225</v>
+        <v>20.61872205464664</v>
       </c>
       <c r="G10">
-        <v>3.634918089829193</v>
+        <v>2.072357343309687</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.16068514359212</v>
+        <v>16.37016232815839</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.54849971937999</v>
+        <v>16.8400196513765</v>
       </c>
       <c r="L10">
-        <v>9.157159822242235</v>
+        <v>6.947848293466386</v>
       </c>
       <c r="M10">
-        <v>14.18184741273387</v>
+        <v>10.55352670045753</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.75593261603637</v>
+        <v>15.77874877512896</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.51162688828297</v>
+        <v>13.63774290070106</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.475501716839373</v>
+        <v>5.536618085361853</v>
       </c>
       <c r="E11">
-        <v>17.08963887982392</v>
+        <v>10.82510796899936</v>
       </c>
       <c r="F11">
-        <v>25.61074008544792</v>
+        <v>20.98069056635489</v>
       </c>
       <c r="G11">
-        <v>3.633698177179127</v>
+        <v>2.068795384680981</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.0783082261471</v>
+        <v>16.15028476839737</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.77537232153349</v>
+        <v>17.31156299469423</v>
       </c>
       <c r="L11">
-        <v>9.176430789693056</v>
+        <v>7.097316604438979</v>
       </c>
       <c r="M11">
-        <v>14.21308171450521</v>
+        <v>10.780423841977</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.72520267467895</v>
+        <v>15.8948431576849</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.55050478049687</v>
+        <v>13.79039910673463</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.489632529522091</v>
+        <v>5.574972088181647</v>
       </c>
       <c r="E12">
-        <v>17.07849772906849</v>
+        <v>10.7950466261536</v>
       </c>
       <c r="F12">
-        <v>25.61654371119005</v>
+        <v>21.11977254980294</v>
       </c>
       <c r="G12">
-        <v>3.633245027162496</v>
+        <v>2.06745737006289</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.04778095269616</v>
+        <v>16.06869825996822</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.85990276150286</v>
+        <v>17.48700611555372</v>
       </c>
       <c r="L12">
-        <v>9.183910654093836</v>
+        <v>7.153590946154194</v>
       </c>
       <c r="M12">
-        <v>14.22515226777825</v>
+        <v>10.8657030821896</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.71435351358928</v>
+        <v>15.94145104698402</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.54212919958673</v>
+        <v>13.75763612732259</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.486595178625322</v>
+        <v>5.566734944649141</v>
       </c>
       <c r="E13">
-        <v>17.08088680156765</v>
+        <v>10.80150238110671</v>
       </c>
       <c r="F13">
-        <v>25.6152472779025</v>
+        <v>21.08973010791125</v>
       </c>
       <c r="G13">
-        <v>3.633342230223879</v>
+        <v>2.067745065692933</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.05432589590653</v>
+        <v>16.08619340587583</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.84175972062985</v>
+        <v>17.44936040748012</v>
       </c>
       <c r="L13">
-        <v>9.182291684273828</v>
+        <v>7.141486349404716</v>
       </c>
       <c r="M13">
-        <v>14.22254196062129</v>
+        <v>10.84736613603643</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.71665501333624</v>
+        <v>15.9312941002608</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.51482421152783</v>
+        <v>13.65035345670583</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.476666951023903</v>
+        <v>5.539783868932581</v>
       </c>
       <c r="E14">
-        <v>17.08871761461118</v>
+        <v>10.82262646665347</v>
       </c>
       <c r="F14">
-        <v>25.611196586235</v>
+        <v>20.99209290145195</v>
       </c>
       <c r="G14">
-        <v>3.633660720044298</v>
+        <v>2.068685092667804</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.0757833659332</v>
+        <v>16.14353849636088</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.78235461673136</v>
+        <v>17.32605946260462</v>
       </c>
       <c r="L14">
-        <v>9.177042530570326</v>
+        <v>7.101953076184913</v>
       </c>
       <c r="M14">
-        <v>14.21406993639548</v>
+        <v>10.78745301211771</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.72429431123827</v>
+        <v>15.89862407592874</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.49810704177878</v>
+        <v>13.5843057584559</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.470568225761795</v>
+        <v>5.523208247008438</v>
       </c>
       <c r="E15">
-        <v>17.09354460609251</v>
+        <v>10.83561977851987</v>
       </c>
       <c r="F15">
-        <v>25.60885168823098</v>
+        <v>20.93254776573394</v>
       </c>
       <c r="G15">
-        <v>3.633856949589457</v>
+        <v>2.069262274264695</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.08901352702708</v>
+        <v>16.17888492527388</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.745786130086</v>
+        <v>17.25012707990312</v>
       </c>
       <c r="L15">
-        <v>9.173850903854998</v>
+        <v>7.077694230628646</v>
       </c>
       <c r="M15">
-        <v>14.20891200902128</v>
+        <v>10.75066917571164</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.72907623177229</v>
+        <v>15.87895997203123</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.40245173581673</v>
+        <v>13.20072420800968</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.435356156950812</v>
+        <v>5.42720041974382</v>
       </c>
       <c r="E16">
-        <v>17.12167272167419</v>
+        <v>10.91091215269116</v>
       </c>
       <c r="F16">
-        <v>25.59750485107471</v>
+        <v>20.5953511122878</v>
       </c>
       <c r="G16">
-        <v>3.634999048362386</v>
+        <v>2.072591678898483</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.16616207589095</v>
+        <v>16.38476177596204</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.53348212687294</v>
+        <v>16.80876788412504</v>
       </c>
       <c r="L16">
-        <v>9.155926153947762</v>
+        <v>6.938036645838127</v>
       </c>
       <c r="M16">
-        <v>14.17984049660761</v>
+        <v>10.5386118921691</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.75805098922921</v>
+        <v>15.77152690364339</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.3439234549217</v>
+        <v>12.96090489650959</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.413524575679783</v>
+        <v>5.367406661861239</v>
       </c>
       <c r="E17">
-        <v>17.13934556037226</v>
+        <v>10.95784734882988</v>
       </c>
       <c r="F17">
-        <v>25.59241172453203</v>
+        <v>20.39213434331951</v>
       </c>
       <c r="G17">
-        <v>3.635715416390205</v>
+        <v>2.074654193383828</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.21467953101205</v>
+        <v>16.51395669943393</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.40082724782485</v>
+        <v>16.53247832123163</v>
       </c>
       <c r="L17">
-        <v>9.145258919842055</v>
+        <v>6.851822185691312</v>
       </c>
       <c r="M17">
-        <v>14.16244521960202</v>
+        <v>10.40744369557409</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.77722661195808</v>
+        <v>15.71023261221681</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.31032560405291</v>
+        <v>12.82132799235531</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.400884794602943</v>
+        <v>5.33269132696456</v>
       </c>
       <c r="E18">
-        <v>17.14966413515188</v>
+        <v>10.98511832075289</v>
       </c>
       <c r="F18">
-        <v>25.5901694114014</v>
+        <v>20.27660568762985</v>
       </c>
       <c r="G18">
-        <v>3.636133245862584</v>
+        <v>2.075848080216885</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.2430229173867</v>
+        <v>16.58930543673015</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.32365573232005</v>
+        <v>16.37154158058767</v>
       </c>
       <c r="L18">
-        <v>9.139245555322224</v>
+        <v>6.80204916268842</v>
       </c>
       <c r="M18">
-        <v>14.1526032777866</v>
+        <v>10.33162391592942</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.78876990465174</v>
+        <v>15.67664202663235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.29896222602519</v>
+        <v>12.77378982657621</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.396591121418784</v>
+        <v>5.3208823151542</v>
       </c>
       <c r="E19">
-        <v>17.15318424339181</v>
+        <v>10.99439914971897</v>
       </c>
       <c r="F19">
-        <v>25.58952827191793</v>
+        <v>20.23772428404833</v>
       </c>
       <c r="G19">
-        <v>3.636275712094967</v>
+        <v>2.076253632689286</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.2526946645037</v>
+        <v>16.61499346609929</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.29737850590182</v>
+        <v>16.31670492028802</v>
       </c>
       <c r="L19">
-        <v>9.137230626869654</v>
+        <v>6.785166471943113</v>
       </c>
       <c r="M19">
-        <v>14.14929920715889</v>
+        <v>10.30589025488754</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.79276647179746</v>
+        <v>15.6655516833019</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.35014727345923</v>
+        <v>12.98660411492175</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.415857197063113</v>
+        <v>5.373805429904364</v>
       </c>
       <c r="E20">
-        <v>17.13744836420001</v>
+        <v>10.95282257002072</v>
       </c>
       <c r="F20">
-        <v>25.59288279636999</v>
+        <v>20.41362714699294</v>
       </c>
       <c r="G20">
-        <v>3.635638558492842</v>
+        <v>2.074433855283149</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.20946950095487</v>
+        <v>16.50009558008719</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.41503917588984</v>
+        <v>16.56209936522027</v>
       </c>
       <c r="L20">
-        <v>9.146381850838038</v>
+        <v>6.861019294806214</v>
       </c>
       <c r="M20">
-        <v>14.1642801132377</v>
+        <v>10.42144610285752</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.77513212243979</v>
+        <v>15.71658454262734</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.52284275103665</v>
+        <v>13.6819346420543</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.479586747486985</v>
+        <v>5.547714108405807</v>
       </c>
       <c r="E21">
-        <v>17.08641118303741</v>
+        <v>10.81641052075514</v>
       </c>
       <c r="F21">
-        <v>25.61235798021089</v>
+        <v>21.0207171284467</v>
       </c>
       <c r="G21">
-        <v>3.633566933252708</v>
+        <v>2.068408696019051</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.06946269114516</v>
+        <v>16.12664865572195</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.79984116008418</v>
+        <v>17.36236079178196</v>
       </c>
       <c r="L21">
-        <v>9.178579416644293</v>
+        <v>7.113574102372032</v>
       </c>
       <c r="M21">
-        <v>14.21655183623812</v>
+        <v>10.80506883055969</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.72202907267925</v>
+        <v>15.90814753092563</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.6360901972028</v>
+        <v>14.12146624999253</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.520463585337881</v>
+        <v>5.658375832386294</v>
       </c>
       <c r="E22">
-        <v>17.05441659494072</v>
+        <v>10.72968591331294</v>
       </c>
       <c r="F22">
-        <v>25.63118727391075</v>
+        <v>21.42919146288971</v>
       </c>
       <c r="G22">
-        <v>3.632264305761405</v>
+        <v>2.064533629181412</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.98184790595259</v>
+        <v>15.8923970909869</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.04326285783606</v>
+        <v>17.86718603193429</v>
       </c>
       <c r="L22">
-        <v>9.200683434667788</v>
+        <v>7.276717800130025</v>
       </c>
       <c r="M22">
-        <v>14.25212661819239</v>
+        <v>11.05202414251273</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.69191475506557</v>
+        <v>16.04880462924326</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.57562303211328</v>
+        <v>13.88825631095872</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.498719414994572</v>
+        <v>5.599593046657154</v>
       </c>
       <c r="E23">
-        <v>17.07136849242262</v>
+        <v>10.77575121961023</v>
       </c>
       <c r="F23">
-        <v>25.62058052328105</v>
+        <v>21.21012744430422</v>
       </c>
       <c r="G23">
-        <v>3.632954862706919</v>
+        <v>2.066596327509701</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.02825418873961</v>
+        <v>16.016493393702</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.91409608159931</v>
+        <v>17.59942250159616</v>
       </c>
       <c r="L23">
-        <v>9.188790345686758</v>
+        <v>7.189832190985393</v>
       </c>
       <c r="M23">
-        <v>14.23301257862678</v>
+        <v>10.92058266983368</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.70756653731024</v>
+        <v>15.97228894428206</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.34733332443011</v>
+        <v>12.97499079453683</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.414802894225993</v>
+        <v>5.370913601758765</v>
       </c>
       <c r="E24">
-        <v>17.13830559367595</v>
+        <v>10.95509337739626</v>
       </c>
       <c r="F24">
-        <v>25.59266768842028</v>
+        <v>20.40390618655798</v>
       </c>
       <c r="G24">
-        <v>3.635673287317952</v>
+        <v>2.074533444794909</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.21182355355811</v>
+        <v>16.50635885634992</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.4086167831549</v>
+        <v>16.54871421182843</v>
       </c>
       <c r="L24">
-        <v>9.145873801617752</v>
+        <v>6.856861923950939</v>
       </c>
       <c r="M24">
-        <v>14.16345006260736</v>
+        <v>10.41511688491739</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.77607742474155</v>
+        <v>15.71370770799546</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.10373506951664</v>
+        <v>11.92754845155095</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.321141235872985</v>
+        <v>5.111968441159336</v>
       </c>
       <c r="E25">
-        <v>17.21638582211473</v>
+        <v>11.15907545020828</v>
       </c>
       <c r="F25">
-        <v>25.58882898896262</v>
+        <v>19.58633087366189</v>
       </c>
       <c r="G25">
-        <v>3.638827229840573</v>
+        <v>2.083387311061841</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.42656198591432</v>
+        <v>17.07426759488245</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.83027380762132</v>
+        <v>15.33826801733852</v>
       </c>
       <c r="L25">
-        <v>9.104264883609419</v>
+        <v>6.490849792238272</v>
       </c>
       <c r="M25">
-        <v>14.09468358437976</v>
+        <v>9.85587342065906</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.86961714590941</v>
+        <v>15.49797345253056</v>
       </c>
     </row>
   </sheetData>
